--- a/stage案.xlsx
+++ b/stage案.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
-    <sheet name="Stage1" sheetId="1" r:id="rId1"/>
+    <sheet name="チュートリアル" sheetId="2" r:id="rId1"/>
+    <sheet name="Stage1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>stage1案</t>
     <rPh sb="6" eb="7">
@@ -96,12 +97,28 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>チュートリアル‐1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル‐2(1)　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル‐２(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル‐3</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +152,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +310,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,6 +349,2159 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1242060" y="876300"/>
+          <a:ext cx="7040880" cy="3581400"/>
+          <a:chOff x="1348740" y="868680"/>
+          <a:chExt cx="7040880" cy="3581400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1348740" y="868680"/>
+            <a:ext cx="7040880" cy="3581400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1767840" y="3413760"/>
+            <a:ext cx="746760" cy="746760"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>自機</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6637020" y="1013460"/>
+            <a:ext cx="746760" cy="746760"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>敵</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9075420" y="1226820"/>
+          <a:ext cx="4671060" cy="2461260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・動かない敵が２体いるだけのシンプル設計。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・マウスで狙って弾を撃つことを教える。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・移動しないと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>体とも倒せない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・弾は打ってこない方が吉</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="2125980"/>
+          <a:ext cx="4686300" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6545580" y="3444240"/>
+          <a:ext cx="746760" cy="746760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>敵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1447800" y="5646420"/>
+          <a:ext cx="12496800" cy="3581400"/>
+          <a:chOff x="1264920" y="5684520"/>
+          <a:chExt cx="12496800" cy="3581400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="グループ化 7"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1264920" y="5684520"/>
+            <a:ext cx="7040880" cy="3581400"/>
+            <a:chOff x="1348740" y="868680"/>
+            <a:chExt cx="7040880" cy="3581400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1348740" y="868680"/>
+              <a:ext cx="7040880" cy="3581400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2072640" y="2179320"/>
+              <a:ext cx="746760" cy="746760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+                <a:t>自機</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7414260" y="2362200"/>
+              <a:ext cx="746760" cy="746760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+                <a:t>敵</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4701540" y="5699760"/>
+            <a:ext cx="906780" cy="876300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>脆壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4701540" y="8366760"/>
+            <a:ext cx="906780" cy="876300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>脆壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4701540" y="6591300"/>
+            <a:ext cx="906780" cy="876300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>脆壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4701540" y="7475220"/>
+            <a:ext cx="906780" cy="876300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>脆壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9090660" y="6035040"/>
+            <a:ext cx="4671060" cy="2461260"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・動かない敵が</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>体いるだけのシンプル設計。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・右クリックで地雷設置ができることを教える。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・できれば図か、映像で地雷のイロハを教えたい。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>（時間経過で爆発だよ～・弾当たったら爆発だよ～）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・一回やらせるか二回やらせるかどっちがいいですか？</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>omi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>は</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>回推し</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5608320" y="12352020"/>
+          <a:ext cx="800100" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>脆壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1379220" y="10020300"/>
+          <a:ext cx="7040880" cy="3870960"/>
+          <a:chOff x="1379220" y="10020300"/>
+          <a:chExt cx="7040880" cy="3870960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="グループ化 19"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1379220" y="10172700"/>
+            <a:ext cx="7040880" cy="3581400"/>
+            <a:chOff x="1264920" y="5684520"/>
+            <a:chExt cx="7040880" cy="3581400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="21" name="グループ化 20"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1264920" y="5684520"/>
+              <a:ext cx="7040880" cy="3581400"/>
+              <a:chOff x="1348740" y="868680"/>
+              <a:chExt cx="7040880" cy="3581400"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1348740" y="868680"/>
+                <a:ext cx="7040880" cy="3581400"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2072640" y="2179320"/>
+                <a:ext cx="746760" cy="746760"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent6">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent6"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:t>自機</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7414260" y="2362200"/>
+                <a:ext cx="746760" cy="746760"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent2">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent2"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent2"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>敵</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3733800" y="6278880"/>
+              <a:ext cx="800100" cy="777240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+                <a:t>脆壁</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3840480" y="10020300"/>
+            <a:ext cx="800100" cy="777240"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3832860" y="13075920"/>
+            <a:ext cx="800100" cy="777240"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3840480" y="11490960"/>
+            <a:ext cx="800100" cy="777240"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3832860" y="12283440"/>
+            <a:ext cx="800100" cy="777240"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5600700" y="10058400"/>
+            <a:ext cx="800100" cy="777240"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5593080" y="13114020"/>
+            <a:ext cx="800100" cy="777240"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5600700" y="11582400"/>
+            <a:ext cx="800100" cy="777240"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5600700" y="10782300"/>
+            <a:ext cx="800100" cy="777240"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>壁</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="グループ化 41"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1325880" y="15331440"/>
+          <a:ext cx="7040880" cy="3581400"/>
+          <a:chOff x="1348740" y="868680"/>
+          <a:chExt cx="7040880" cy="3581400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1348740" y="868680"/>
+            <a:ext cx="7040880" cy="3581400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1706880" y="3665220"/>
+            <a:ext cx="716280" cy="548640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>自機</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7338060" y="1005840"/>
+            <a:ext cx="601980" cy="586740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>敵</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="16116300"/>
+          <a:ext cx="4541520" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3345180" y="16123920"/>
+          <a:ext cx="662940" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>脆壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951220" y="16116300"/>
+          <a:ext cx="662940" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>脆壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2659380" y="17670780"/>
+          <a:ext cx="4541520" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3337560" y="17678400"/>
+          <a:ext cx="662940" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>脆壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="17670780"/>
+          <a:ext cx="662940" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>脆壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640580" y="16832580"/>
+          <a:ext cx="601980" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>敵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277100" y="18272760"/>
+          <a:ext cx="601980" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>敵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="15521940"/>
+          <a:ext cx="4671060" cy="2461260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400"/>
+            <a:t>やってみよう</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12557760" y="17609820"/>
+          <a:ext cx="929640" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スキップ可</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1017,9 +3211,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C65" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="C65:D66"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B74" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -1035,15 +3296,15 @@
     </row>
     <row r="23" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">

--- a/stage案.xlsx
+++ b/stage案.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="チュートリアル" sheetId="2" r:id="rId1"/>
-    <sheet name="Stage1" sheetId="1" r:id="rId2"/>
+    <sheet name="Bossステージ" sheetId="3" r:id="rId2"/>
+    <sheet name="Stage1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1686,7 +1687,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5600700" y="11582400"/>
+            <a:off x="5600700" y="11551920"/>
             <a:ext cx="800100" cy="777240"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2498,10 +2499,354 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5585460" y="12321540"/>
+          <a:ext cx="800100" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>脆壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>318134</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="984884" y="1935479"/>
+          <a:ext cx="7778115" cy="3846195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="4857750"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>自機</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="971551"/>
+          <a:ext cx="5314950" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>BOSS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="3352800"/>
+          <a:ext cx="1590675" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>壁</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="3343275"/>
+          <a:ext cx="1590675" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>壁</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3213,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3278,9 +3623,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="B74" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
